--- a/Calibrate/data.xlsx
+++ b/Calibrate/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Start Pulse</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -451,14 +451,14 @@
         <v>327</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C15" si="0">B3-A3</f>
         <v>216</v>
       </c>
       <c r="D3">
         <v>23</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
+        <f t="shared" ref="E3:E15" si="1">C3/D3</f>
         <v>9.3913043478260878</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -490,8 +490,8 @@
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f>SUM(E2:E9)/COUNT(E2:E9)</f>
-        <v>11.444746376811594</v>
+        <f>SUM(E2:E87)/COUNT(E2:E87)</f>
+        <v>10.4669384057971</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -564,7 +564,7 @@
       </c>
       <c r="I7">
         <f>I4*12</f>
-        <v>137.33695652173913</v>
+        <v>125.60326086956519</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -610,6 +610,318 @@
       <c r="G9" s="2">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>229</v>
+      </c>
+      <c r="B10">
+        <v>347</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>659</v>
+      </c>
+      <c r="B11">
+        <v>772</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>9.4166666666666661</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1854</v>
+      </c>
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>9.3125</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>2416</v>
+      </c>
+      <c r="B13">
+        <v>2565</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>9.3125</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>2657</v>
+      </c>
+      <c r="B14">
+        <v>2773</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>3240</v>
+      </c>
+      <c r="B15">
+        <v>3359</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>7.4375</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="7:7">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="7:7">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:7">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="7:7">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:7">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="7:7">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="7:7">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="7:7">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="7:7">
+      <c r="G75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calibrate/data.xlsx
+++ b/Calibrate/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Start Pulse</t>
   </si>
@@ -451,14 +451,14 @@
         <v>327</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C15" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C17" si="0">B3-A3</f>
         <v>216</v>
       </c>
       <c r="D3">
         <v>23</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="1">C3/D3</f>
+        <f t="shared" ref="E3:E25" si="1">C3/D3</f>
         <v>9.3913043478260878</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -491,7 +491,7 @@
       </c>
       <c r="I4">
         <f>SUM(E2:E87)/COUNT(E2:E87)</f>
-        <v>10.4669384057971</v>
+        <v>10.594142512077294</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -564,7 +564,7 @@
       </c>
       <c r="I7">
         <f>I4*12</f>
-        <v>125.60326086956519</v>
+        <v>127.12971014492753</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -744,10 +744,26 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="2"/>
+      <c r="A16">
+        <v>818</v>
+      </c>
+      <c r="B16">
+        <v>1016</v>
+      </c>
+      <c r="C16">
+        <f>B16-A16</f>
+        <v>198</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <f>C16/D16</f>
+        <v>12.375</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" s="2"/>
